--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_7.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_10_7.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_2</t>
+          <t>model_10_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999977415689826</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6364540839918094</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999990483624827</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999884016829432</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999964930799662</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G2" t="n">
-        <v>1.340702211058731e-06</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2158165601083202</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I2" t="n">
-        <v>9.368745852294495e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J2" t="n">
-        <v>4.375713871056589e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K2" t="n">
-        <v>2.65629422814302e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002622221806043246</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001157886959533931</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001204496543</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001207180604557727</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P2" t="n">
-        <v>165.0446340863159</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.1470660022217</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_1</t>
+          <t>model_10_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999997301317138</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6364339278794271</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999993945509174</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999849104593623</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999958485956801</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G3" t="n">
-        <v>1.602054723897077e-06</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H3" t="n">
-        <v>0.215828525647329</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I3" t="n">
-        <v>5.960566368720221e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J3" t="n">
-        <v>5.692852846893657e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K3" t="n">
-        <v>3.144454742980223e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002737763415054052</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001265723004411738</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001439297526</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001319607453117369</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P3" t="n">
-        <v>164.6884471003311</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q3" t="n">
-        <v>248.7908790162369</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_0</t>
+          <t>model_10_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999973013176868</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6364339057169976</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999993945602622</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999849104593175</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999958486017531</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G4" t="n">
-        <v>1.602054398089174e-06</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2158285388039045</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I4" t="n">
-        <v>5.960474370501174e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J4" t="n">
-        <v>5.692852863820405e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K4" t="n">
-        <v>3.144450143069271e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000273777267572521</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001265722875707465</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001439297234</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001319607318933888</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P4" t="n">
-        <v>164.6884475070686</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q4" t="n">
-        <v>248.7908794229745</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_3</t>
+          <t>model_10_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999981633626673</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6363543287654047</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999991867262339</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999906562228205</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999971444678989</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G5" t="n">
-        <v>1.090307259301085e-06</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2158757791199154</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I5" t="n">
-        <v>8.006572968880637e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J5" t="n">
-        <v>3.525140346859901e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K5" t="n">
-        <v>2.16290459012305e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002325553254689861</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001044177791039958</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000000979539911</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001088630601350537</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P5" t="n">
-        <v>165.458102024359</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q5" t="n">
-        <v>249.5605339402648</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_4</t>
+          <t>model_10_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999985031151845</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6362651896119979</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999992931934641</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999924755922688</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999976667663507</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G6" t="n">
-        <v>8.886154885706716e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2159286959719886</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I6" t="n">
-        <v>6.958417128775262e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J6" t="n">
-        <v>2.838744200537928e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K6" t="n">
-        <v>1.767292956707727e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002160999376586894</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0009426640380170825</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000000798338568</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0009827951976990401</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P6" t="n">
-        <v>165.8672024325793</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q6" t="n">
-        <v>249.9696343484852</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_5</t>
+          <t>model_10_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999987764721024</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.636189212447415</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999993643413783</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999993966986528</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999998084424268</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G7" t="n">
-        <v>7.263390136225292e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2159737992989276</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I7" t="n">
-        <v>6.257975297854386e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J7" t="n">
-        <v>2.276083728760484e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K7" t="n">
-        <v>1.450940629272961e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002035721865872483</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0008522552514490768</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000000652548212</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0008885375219148459</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P7" t="n">
-        <v>166.2704979404027</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.3729298563086</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_6</t>
+          <t>model_10_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999989964640038</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6361222470391803</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999999417113972</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999951724224553</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999984189247263</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G8" t="n">
-        <v>5.957423178114142e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2160135528580107</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I8" t="n">
-        <v>5.738436071446759e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J8" t="n">
-        <v>1.821307170904009e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K8" t="n">
-        <v>1.197575389024342e-06</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001918997564289437</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0007718434542129733</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000000535219198</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0008047024279950337</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P8" t="n">
-        <v>166.6669152320757</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7693471479815</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_7</t>
+          <t>model_10_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999999173599688</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C9" t="n">
-        <v>0.636063453803688</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999994561913302</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999961455868338</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999986866794898</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G9" t="n">
-        <v>4.905869237961676e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2160484550623345</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I9" t="n">
-        <v>5.353724633803043e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J9" t="n">
-        <v>1.454160036617896e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K9" t="n">
-        <v>9.947662499991002e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001808250748009034</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0007004191058189144</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000000440746833</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007302373972210559</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P9" t="n">
-        <v>167.0553267179411</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.157758633847</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_8</t>
+          <t>model_10_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999993155280548</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6360140097445359</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999994802863116</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999969387217166</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999988998625741</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G10" t="n">
-        <v>4.063321143098093e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2160778071917193</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I10" t="n">
-        <v>5.11651272049505e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J10" t="n">
-        <v>1.154932890903408e-06</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K10" t="n">
-        <v>8.332920814764563e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001701083056089514</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0006374418517086945</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000000365051704</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006645790710224759</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P10" t="n">
-        <v>167.4321899923913</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q10" t="n">
-        <v>251.5346219082971</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_9</t>
+          <t>model_10_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999994295102983</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6359689973906788</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D11" t="n">
-        <v>0.99999950050385</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999975690598433</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999990699824806</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G11" t="n">
-        <v>3.386673307789547e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2161045284694014</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I11" t="n">
-        <v>4.917473721267396e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J11" t="n">
-        <v>9.171243130856707e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K11" t="n">
-        <v>7.044358426062052e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001604032143334746</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005819513130657536</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000000304261174</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0006067261852682544</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P11" t="n">
-        <v>167.7964950730331</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.8989269889389</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_10</t>
+          <t>model_10_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999995212928686</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6359279417967172</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999995178958971</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999980702653448</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999992061066483</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84181232225362e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2161289008434862</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I12" t="n">
-        <v>4.746251310158573e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J12" t="n">
-        <v>7.280337877181887e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K12" t="n">
-        <v>6.013294593670231e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001517736313637391</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0005330865147660012</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N12" t="n">
-        <v>1.00000025531047</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0005557811113408043</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P12" t="n">
-        <v>168.1473073213448</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q12" t="n">
-        <v>252.2497392372507</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_11</t>
+          <t>model_10_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999995945209831</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.635891971123987</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999999530578122</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999984692127367</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999993137033971</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G13" t="n">
-        <v>2.407098602041467e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2161502545886711</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I13" t="n">
-        <v>4.621396479565885e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J13" t="n">
-        <v>5.775223274782093e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K13" t="n">
-        <v>5.198309877173989e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0001437992644512217</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004906219116632956</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000000216255476</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0005115087021701699</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P13" t="n">
-        <v>168.4793470565857</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q13" t="n">
-        <v>252.5817789724915</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999996531995043</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6358599909482505</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999995408210806</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999987858311863</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999993992115155</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G14" t="n">
-        <v>2.058757552429991e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2161692394024599</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I14" t="n">
-        <v>4.520555903001273e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J14" t="n">
-        <v>4.580712265404459e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K14" t="n">
-        <v>4.550634084202866e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001364183890940859</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0004537353361189749</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000000184960264</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0004730517887391895</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P14" t="n">
-        <v>168.7919859600024</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.8944178759082</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_13</t>
+          <t>model_10_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999996996338548</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6358325318603375</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999995465291245</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999990378863557</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999994656864235</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G15" t="n">
-        <v>1.783103189234911e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2161855403032159</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I15" t="n">
-        <v>4.46436096314101e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J15" t="n">
-        <v>3.629780077656969e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K15" t="n">
-        <v>4.047124130104102e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001295059950397826</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004222680652423187</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000000160195277</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0004402448909950835</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P15" t="n">
-        <v>169.079480879624</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q15" t="n">
-        <v>253.1819127955299</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_14</t>
+          <t>model_10_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999997363712031</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6358087121657556</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999995502388582</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999992367987728</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999999517642027</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G16" t="n">
-        <v>1.565014420316559e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2161996807028769</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I16" t="n">
-        <v>4.427839124329721e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J16" t="n">
-        <v>2.879340321502902e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K16" t="n">
-        <v>3.653589722916312e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001230313339272826</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003956026314771628</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000000140602025</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0004124442545094874</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P16" t="n">
-        <v>169.3404012254977</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q16" t="n">
-        <v>253.4428331414036</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_15</t>
+          <t>model_10_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999997657707862</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6357864922630654</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999995539112881</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999993914831642</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999995585516479</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G17" t="n">
-        <v>1.390485794757835e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2162128713969637</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I17" t="n">
-        <v>4.391684535695081e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J17" t="n">
-        <v>2.295760277937964e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K17" t="n">
-        <v>3.343722406816522e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001172847619136549</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003728921821060123</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000000124922247</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0003887669742914959</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P17" t="n">
-        <v>169.576884944485</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q17" t="n">
-        <v>253.6793168603909</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_16</t>
+          <t>model_10_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999997887882798</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6357671561632388</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999995560239143</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999999511643056</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999995898495211</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G18" t="n">
-        <v>1.253844009727673e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2162243501410968</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I18" t="n">
-        <v>4.370886009446778e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J18" t="n">
-        <v>1.842431314105696e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K18" t="n">
-        <v>3.106658661776237e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001119574504923336</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003540965983637336</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000000112646251</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0003691712236370863</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P18" t="n">
-        <v>169.7837632212835</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q18" t="n">
-        <v>253.8861951371893</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_17</t>
+          <t>model_10_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999998069530336</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6357496613389921</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999999558139345</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999999603245847</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999996140491754</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G19" t="n">
-        <v>1.146010184464971e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2162347358245066</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I19" t="n">
-        <v>4.350059873521555e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J19" t="n">
-        <v>1.496840138303488e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K19" t="n">
-        <v>2.923359922673089e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001072649829804409</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003385277218286518</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000000102958382</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0003529395477958887</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P19" t="n">
-        <v>169.9636182914751</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q19" t="n">
-        <v>254.066050207381</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_18</t>
+          <t>model_10_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999998213171574</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6357336013118619</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999995605071377</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999996722674311</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999996327807633</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G20" t="n">
-        <v>1.06073854069903e-07</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2162442697503682</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I20" t="n">
-        <v>4.326749267544156e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J20" t="n">
-        <v>1.236441408172089e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K20" t="n">
-        <v>2.781478703756646e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0001030391265451264</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003256898126590744</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000000095297516</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0003395551022548267</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P20" t="n">
-        <v>170.1182604978681</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.2206924137739</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_19</t>
+          <t>model_10_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999998325241832</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6357198133833969</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999995616679307</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999997255576784</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999996467912762</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G21" t="n">
-        <v>9.942087938985018e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2162524548603125</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I21" t="n">
-        <v>4.315321413147603e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03539252096099e-07</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K21" t="n">
-        <v>2.675356967054297e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L21" t="n">
-        <v>9.900746365917958e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0003153107663716071</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000000089320436</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0003287341984793142</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P21" t="n">
-        <v>170.2478073822367</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q21" t="n">
-        <v>254.3502392981425</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_20</t>
+          <t>model_10_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999998408669825</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6357077887429882</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999995615395452</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999997648131783</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999996564841331</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G22" t="n">
-        <v>9.446823339393559e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2162595932062966</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I22" t="n">
-        <v>4.316585351435825e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J22" t="n">
-        <v>8.872927276975687e-08</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K22" t="n">
-        <v>2.601939039566696e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L22" t="n">
-        <v>9.531392500253792e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0003073568502472909</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000000084870943</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0003204416676787097</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P22" t="n">
-        <v>170.3500044270417</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q22" t="n">
-        <v>254.4524363429475</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_21</t>
+          <t>model_10_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999998475142249</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6356966126169897</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999995624074287</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999997925847507</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999996639566201</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G23" t="n">
-        <v>9.052214316390523e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2162662278374727</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I23" t="n">
-        <v>4.308041152379792e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J23" t="n">
-        <v>7.825185145610058e-08</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K23" t="n">
-        <v>2.545339163044535e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L23" t="n">
-        <v>9.212059849415413e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0003008689800625934</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000000081325747</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0003136775954285068</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P23" t="n">
-        <v>170.4353426806491</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q23" t="n">
-        <v>254.5377745965549</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_22</t>
+          <t>model_10_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999998523650072</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6356870545124375</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999995620615464</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999998125706006</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999996687170006</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G24" t="n">
-        <v>8.764250919619425e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2162719019412236</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I24" t="n">
-        <v>4.311446318626158e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J24" t="n">
-        <v>7.071176094634103e-08</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K24" t="n">
-        <v>2.509281964044784e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L24" t="n">
-        <v>8.918690093948778e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0002960447756610379</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000000078738663</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0003086480146580973</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P24" t="n">
-        <v>170.4999993838204</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q24" t="n">
-        <v>254.6024312997263</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_7_23</t>
+          <t>model_10_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999998559686115</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6356784376026606</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999995616615367</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999998260078403</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999996718034896</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G25" t="n">
-        <v>8.55032540415269e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2162770173110982</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I25" t="n">
-        <v>4.315384360966818e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J25" t="n">
-        <v>6.564227402200507e-08</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K25" t="n">
-        <v>2.485903550593434e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L25" t="n">
-        <v>8.640450636788662e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0002924093945849327</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000000076816741</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0003048578678833061</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P25" t="n">
-        <v>170.5494228055254</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q25" t="n">
-        <v>254.6518547214312</v>
+        <v>53.281961965732</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999998586029069</v>
+        <v>0.3082271070678201</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6356706812515365</v>
+        <v>-2.241727458159763</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999995612819447</v>
+        <v>0.3070262418653799</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999998342173163</v>
+        <v>0.7132331659403001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999996735917541</v>
+        <v>0.5162755669956079</v>
       </c>
       <c r="G26" t="n">
-        <v>8.393942252836318e-08</v>
+        <v>0.4106662722775318</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2162816218161824</v>
+        <v>1.924429454498304</v>
       </c>
       <c r="I26" t="n">
-        <v>4.319121394201471e-07</v>
+        <v>0.455902338493314</v>
       </c>
       <c r="J26" t="n">
-        <v>6.254507312862834e-08</v>
+        <v>0.1959031854590932</v>
       </c>
       <c r="K26" t="n">
-        <v>2.472358454586215e-07</v>
+        <v>0.3259027619762035</v>
       </c>
       <c r="L26" t="n">
-        <v>8.401136786736121e-05</v>
+        <v>0.2690475247287556</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0002897230100084616</v>
+        <v>0.6408324837877148</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000000075411783</v>
+        <v>-1.07531867879654</v>
       </c>
       <c r="O26" t="n">
-        <v>0.000302057118353832</v>
+        <v>0.6681140493286761</v>
       </c>
       <c r="P26" t="n">
-        <v>170.5863409172819</v>
+        <v>33.77994876784079</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.6887728331878</v>
+        <v>53.281961965732</v>
       </c>
     </row>
   </sheetData>
